--- a/яблони.xlsx
+++ b/яблони.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Desktop\projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Desktop\projects\apple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FFBED2-A60F-4A6E-901D-37A8F11EE489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DF013B-F705-44DC-AE40-7A87BCE81E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6345" yWindow="3045" windowWidth="21600" windowHeight="11385" xr2:uid="{EDE7C215-95D9-43C4-B7BE-1FE40D3DB0F6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="134">
   <si>
     <t>Яблочная парша</t>
   </si>
@@ -418,6 +418,15 @@
   </si>
   <si>
     <t>3 часа  более -3°C</t>
+  </si>
+  <si>
+    <t>11°C - 28 °C</t>
+  </si>
+  <si>
+    <t>спячка</t>
+  </si>
+  <si>
+    <t>зиму переживают 30% (до 50%)</t>
   </si>
 </sst>
 </file>
@@ -773,7 +782,7 @@
   <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,6 +1148,12 @@
       <c r="C22" t="s">
         <v>20</v>
       </c>
+      <c r="M22" t="s">
+        <v>55</v>
+      </c>
+      <c r="P22" t="s">
+        <v>131</v>
+      </c>
       <c r="W22" t="s">
         <v>96</v>
       </c>
@@ -1154,6 +1169,12 @@
       </c>
       <c r="C24" t="s">
         <v>23</v>
+      </c>
+      <c r="M24" t="s">
+        <v>132</v>
+      </c>
+      <c r="P24" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
